--- a/Anaheim Angels.xlsx
+++ b/Anaheim Angels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,9 +22,15 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>ANA</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,189 +429,216 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1997</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1767330</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="F2">
         <v>289850</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>69378</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>31135472</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1998</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>2519280</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>85</v>
+      </c>
+      <c r="F3">
         <v>349401</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>77044</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>41281000</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1999</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>2253123</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
         <v>451100</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>91840</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>55388166</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2000</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>2066982</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
         <v>368355</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>69780</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>51464167</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2000919</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
         <v>393435</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>70680</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>47535167</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>2305547</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>99</v>
+      </c>
+      <c r="F7">
         <v>391258</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>66808</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>61721667</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>3061094</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>77</v>
+      </c>
+      <c r="F8">
         <v>400113</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>65232</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>79031667</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>3375677</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
         <v>422442</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>66042</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>100534667</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
